--- a/figures/sup/ts2_select_bgc_gene_annotations.xlsx
+++ b/figures/sup/ts2_select_bgc_gene_annotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\thor_secmet\figures\sup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F801631-4CBA-45D6-9D8C-07E572B6DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEB1EEB-2A27-4D13-9D35-1C96566D35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CD94A6FB-C2DB-47E8-BA94-40A7C20FD321}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4CFB8-D01C-4218-8DCF-02B869E92BA9}">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
@@ -2223,12 +2223,13 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/figures/sup/ts2_select_bgc_gene_annotations.xlsx
+++ b/figures/sup/ts2_select_bgc_gene_annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\thor_secmet\figures\sup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEB1EEB-2A27-4D13-9D35-1C96566D35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BAD38-C337-4B19-B467-FA20945081AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CD94A6FB-C2DB-47E8-BA94-40A7C20FD321}"/>
   </bookViews>
@@ -1877,12 +1877,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1891,11 +1906,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2212,5334 +2227,5331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4CFB8-D01C-4218-8DCF-02B869E92BA9}">
-  <dimension ref="A1:R238"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>52.8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>53.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>42.2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>73.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>63.3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>70.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>67.3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>59.1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>61.8</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>41.8</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>54.9</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>55.9</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>56.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>53.8</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>56.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>43.6</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>91.7</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>92.2</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>96.7</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>92.9</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>88.9</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>53.1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>40.4</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>44.8</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>65.8</v>
       </c>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>74.400000000000006</v>
       </c>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>57.1</v>
       </c>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" t="s">
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>64.900000000000006</v>
       </c>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" t="s">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>56.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>31.9</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>32.1</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>44.6</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>57.5</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>68.7</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>98.3</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>93.3</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
-      <c r="A46" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>95.7</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>95.9</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>92.1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="1">
         <v>50.8</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="1">
         <v>44.7</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="1">
         <v>42.3</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="1">
         <v>42.3</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="A122" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C122" t="s">
-        <v>179</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="1">
         <v>78.900000000000006</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" t="s">
-        <v>187</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C123" t="s">
-        <v>179</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="1">
         <v>73.900000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" t="s">
-        <v>187</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C124" t="s">
-        <v>179</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>79.5</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" t="s">
-        <v>187</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C125" t="s">
-        <v>179</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>187</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C126" t="s">
-        <v>179</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C127" t="s">
-        <v>179</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>75.599999999999994</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C128" t="s">
-        <v>179</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>87.8</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" t="s">
-        <v>187</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C129" t="s">
-        <v>179</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C130" t="s">
-        <v>179</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C131" t="s">
-        <v>179</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C131" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" t="s">
-        <v>187</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C132" t="s">
-        <v>179</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" t="s">
-        <v>187</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C133" t="s">
-        <v>179</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" t="s">
-        <v>187</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C134" t="s">
-        <v>179</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" t="s">
-        <v>187</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C135" t="s">
-        <v>179</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" t="s">
-        <v>187</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C136" t="s">
-        <v>179</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" t="s">
-        <v>187</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="A137" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C137" t="s">
-        <v>179</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" t="s">
-        <v>187</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C138" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="1" t="s">
         <v>524</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="1">
         <v>84.8</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" t="s">
-        <v>187</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C139" t="s">
-        <v>179</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" t="s">
-        <v>187</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C140" t="s">
-        <v>179</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="1">
         <v>54.2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" t="s">
-        <v>187</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="A141" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C141" t="s">
-        <v>179</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="1">
         <v>85.9</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" t="s">
-        <v>187</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C142" t="s">
-        <v>179</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="1">
         <v>81.099999999999994</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" t="s">
-        <v>187</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="A143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C143" t="s">
-        <v>179</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C143" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="1">
         <v>83.9</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" t="s">
-        <v>187</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C144" t="s">
-        <v>179</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="1">
         <v>53.4</v>
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" t="s">
-        <v>187</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C145" t="s">
-        <v>179</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C145" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="1">
         <v>72.400000000000006</v>
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" t="s">
-        <v>187</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="A146" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C146" t="s">
-        <v>179</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" t="s">
-        <v>187</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C147" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="1">
         <v>72.7</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="A148" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C148" t="s">
-        <v>179</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C148" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" t="s">
-        <v>187</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="A149" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C149" t="s">
-        <v>179</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" t="s">
-        <v>187</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="A150" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C150" t="s">
-        <v>179</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C150" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" t="s">
-        <v>187</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C151" t="s">
-        <v>179</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" t="s">
-        <v>187</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C152" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C152" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>187</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C153" t="s">
-        <v>179</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C153" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" t="s">
-        <v>187</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C154" t="s">
-        <v>179</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C154" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" t="s">
-        <v>187</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C155" t="s">
-        <v>179</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C155" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" t="s">
-        <v>187</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="A156" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C156" t="s">
-        <v>179</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C156" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" t="s">
-        <v>187</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="A157" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C157" t="s">
-        <v>179</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C157" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" t="s">
-        <v>187</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="A158" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C158" t="s">
-        <v>179</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C158" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" t="s">
-        <v>187</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C159" t="s">
-        <v>179</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C159" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" t="s">
-        <v>187</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="A160" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C160" t="s">
-        <v>179</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C160" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="1">
         <v>99.7</v>
       </c>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" t="s">
-        <v>187</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="A161" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C161" t="s">
-        <v>179</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C161" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="1">
         <v>99.4</v>
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" t="s">
-        <v>187</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="A162" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C162" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="C162" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" t="s">
-        <v>187</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="A163" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C163" t="s">
-        <v>179</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="C163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" t="s">
-        <v>187</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="A164" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C164" t="s">
-        <v>179</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="C164" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="1">
         <v>86.5</v>
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="A165" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C165" t="s">
-        <v>179</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C165" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="1">
         <v>88.3</v>
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="A166" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C166" t="s">
-        <v>179</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C166" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C167" t="s">
-        <v>179</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="C167" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="1">
         <v>76.900000000000006</v>
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" t="s">
-        <v>187</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="A168" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C168" t="s">
-        <v>179</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="C168" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="1">
         <v>82.5</v>
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" t="s">
-        <v>187</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="A169" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C169" t="s">
-        <v>179</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C169" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="1">
         <v>87.5</v>
       </c>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" t="s">
-        <v>187</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="A170" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C170" t="s">
-        <v>179</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="1">
         <v>92.7</v>
       </c>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" t="s">
-        <v>187</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="A171" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C171" t="s">
-        <v>179</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C171" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="1">
         <v>91.3</v>
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" t="s">
-        <v>187</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="A172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C172" t="s">
-        <v>179</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C172" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" t="s">
-        <v>187</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="A173" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C173" t="s">
-        <v>179</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C173" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" t="s">
-        <v>187</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="A174" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C174" t="s">
-        <v>179</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="C174" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" t="s">
-        <v>187</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="A175" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C175" t="s">
-        <v>179</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C175" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" t="s">
-        <v>187</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="A176" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C176" t="s">
-        <v>179</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" t="s">
-        <v>187</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="A177" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C177" t="s">
-        <v>179</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="C177" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" t="s">
-        <v>187</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="A178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C178" t="s">
-        <v>179</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="C178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="A179" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C179" t="s">
-        <v>179</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="C179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C180" t="s">
-        <v>179</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>187</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="A181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C181" t="s">
-        <v>179</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="C181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>187</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="A182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C182" t="s">
-        <v>179</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="C182" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="A183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C183" t="s">
-        <v>179</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C183" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C184" t="s">
-        <v>179</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="C184" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C185" t="s">
-        <v>179</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="C185" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C186" t="s">
-        <v>179</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="C186" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C187" t="s">
-        <v>179</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="C187" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C188" t="s">
-        <v>179</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C188" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C189" t="s">
-        <v>179</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="C189" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="A190" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C190" t="s">
-        <v>179</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="C190" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" t="s">
-        <v>187</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="A191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C191" t="s">
-        <v>179</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="C191" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" t="s">
-        <v>187</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="A192" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C192" t="s">
-        <v>179</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="C192" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" t="s">
-        <v>187</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="A193" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C193" t="s">
-        <v>179</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="C193" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" t="s">
-        <v>187</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C194" t="s">
-        <v>179</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C194" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" t="s">
-        <v>187</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C195" t="s">
-        <v>179</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C195" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C196" t="s">
-        <v>179</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C196" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" t="s">
-        <v>187</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C197" t="s">
-        <v>179</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="C197" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" t="s">
-        <v>187</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="A198" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C198" t="s">
-        <v>179</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="C198" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" t="s">
-        <v>187</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="A199" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C199" t="s">
-        <v>179</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="C199" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" t="s">
-        <v>187</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="A200" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C200" t="s">
-        <v>179</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="C200" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" t="s">
-        <v>187</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="A201" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C201" t="s">
-        <v>179</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="C201" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" t="s">
-        <v>187</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="A202" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C202" t="s">
-        <v>179</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="C202" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" t="s">
-        <v>187</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="A203" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C203" t="s">
-        <v>179</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="C203" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>187</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="A204" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C204" t="s">
-        <v>179</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="C204" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" t="s">
-        <v>187</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="A205" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C205" t="s">
-        <v>179</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C205" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" t="s">
-        <v>187</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="A206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C206" t="s">
-        <v>179</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="C206" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" t="s">
-        <v>187</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="A207" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C207" t="s">
-        <v>179</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="C207" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" t="s">
-        <v>187</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="A208" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C208" t="s">
-        <v>179</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="C208" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" t="s">
-        <v>187</v>
-      </c>
-      <c r="B209" t="s">
+      <c r="A209" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C209" t="s">
-        <v>179</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C209" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" t="s">
-        <v>187</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="A210" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C210" t="s">
-        <v>179</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="C210" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" t="s">
-        <v>187</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="A211" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C211" t="s">
-        <v>179</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="C211" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" t="s">
-        <v>187</v>
-      </c>
-      <c r="B212" t="s">
+      <c r="A212" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C212" t="s">
-        <v>179</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C212" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" t="s">
-        <v>187</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="A213" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C213" t="s">
-        <v>179</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C213" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" t="s">
-        <v>187</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="A214" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C214" t="s">
-        <v>179</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C214" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" t="s">
-        <v>187</v>
-      </c>
-      <c r="B215" t="s">
+      <c r="A215" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C215" t="s">
-        <v>179</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C215" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" t="s">
-        <v>187</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="A216" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C216" t="s">
-        <v>179</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="C216" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" t="s">
-        <v>187</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="A217" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C217" t="s">
-        <v>179</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C217" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" t="s">
-        <v>187</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="A218" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C218" t="s">
-        <v>179</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="C218" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" t="s">
-        <v>187</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="A219" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C219" t="s">
-        <v>179</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C219" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" t="s">
-        <v>187</v>
-      </c>
-      <c r="B220" t="s">
+      <c r="A220" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C220" t="s">
-        <v>179</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="C220" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" t="s">
-        <v>187</v>
-      </c>
-      <c r="B221" t="s">
+      <c r="A221" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C221" t="s">
-        <v>179</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="C221" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" t="s">
-        <v>187</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="A222" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C222" t="s">
-        <v>179</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="C222" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" t="s">
-        <v>187</v>
-      </c>
-      <c r="B223" t="s">
+      <c r="A223" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C223" t="s">
-        <v>179</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C223" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" t="s">
-        <v>187</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="A224" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C224" t="s">
-        <v>179</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C224" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" t="s">
-        <v>187</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="A225" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C225" t="s">
-        <v>179</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="C225" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" t="s">
-        <v>187</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="A226" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C226" t="s">
-        <v>179</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="C226" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" t="s">
-        <v>187</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="A227" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C227" t="s">
-        <v>179</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="C227" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" t="s">
-        <v>187</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="A228" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C228" t="s">
-        <v>179</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="C228" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" t="s">
-        <v>187</v>
-      </c>
-      <c r="B229" t="s">
+      <c r="A229" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C229" t="s">
-        <v>179</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C229" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" t="s">
-        <v>187</v>
-      </c>
-      <c r="B230" t="s">
+      <c r="A230" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C230" t="s">
-        <v>179</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="C230" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" t="s">
-        <v>187</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="A231" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C231" t="s">
-        <v>179</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C231" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" t="s">
-        <v>187</v>
-      </c>
-      <c r="B232" t="s">
+      <c r="A232" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C232" t="s">
-        <v>179</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C232" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" t="s">
-        <v>187</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="A233" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C233" t="s">
-        <v>179</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="C233" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" t="s">
-        <v>187</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C234" t="s">
-        <v>179</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="C234" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" t="s">
-        <v>187</v>
-      </c>
-      <c r="B235" t="s">
+      <c r="A235" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C235" t="s">
-        <v>179</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="C235" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" t="s">
-        <v>187</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="A236" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C236" t="s">
-        <v>179</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="C236" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" t="s">
-        <v>187</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="A237" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C237" t="s">
-        <v>179</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C237" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" t="s">
-        <v>187</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="A238" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C238" t="s">
-        <v>179</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="C238" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7549,5 +7561,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>